--- a/biology/Zoologie/Elgaria_multicarinata/Elgaria_multicarinata.xlsx
+++ b/biology/Zoologie/Elgaria_multicarinata/Elgaria_multicarinata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elgaria multicarinata est une espèce de sauriens de la famille des Anguidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elgaria multicarinata est une espèce de sauriens de la famille des Anguidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontrent en Californie, en Oregon et au Washington aux États-Unis et en Basse-Californie au Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontrent en Californie, en Oregon et au Washington aux États-Unis et en Basse-Californie au Mexique.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans des zones herbeuses, des forêts ainsi que dans les milieux urbains, et apprécie les zones plutôt humides. Il a une longue queue préhensile, faisant plus que la longueur du corps lui-même, et il peut atteindre 50 cm en tout.
 Il consomme divers arthropodes, limaces, lézards et occasionnellement de petits oiseaux et des œufs (Stebbins, 2003).
@@ -575,9 +591,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (30 mai 2012)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (30 mai 2012) :
 Elgaria multicarinata ignava (Van Denburgh, 1905)
 Elgaria multicarinata multicarinata (Blainville, 1835)
 Elgaria multicarinata nana (Fitch, 1934)
@@ -610,7 +628,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Baird, 1859 "1858" : Description of new genera and species of North American lizards in the museum of the Smithsonian Institution. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 10, p. 253-256 (texte intégral).
 Blainville, 1835 : Description de quelques espèces de reptiles de la Californie précédée de l’analyse d’un système général d’herpétologie et d’amphibiologie. Nouvelles Annales du Muséum d'Histoire Naturelle, vol. 4, p. 233-296 (texte intégral).
